--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/85.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/85.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03571692904857166</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.673984174544774</v>
+        <v>-1.671301258952516</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1994509318058958</v>
+        <v>-0.2038817956323572</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3075781753436465</v>
+        <v>-0.3123143988796403</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.02146231981055801</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.810323349803157</v>
+        <v>-1.811227623788344</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1859930683187749</v>
+        <v>-0.1896384966037073</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3086973029388913</v>
+        <v>-0.3142032218252011</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.009902026581033936</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.985569129701851</v>
+        <v>-1.989157106288856</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2595139274556088</v>
+        <v>-0.2631026910521743</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3397102016858788</v>
+        <v>-0.345354634254863</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.01098167466494741</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.01457436705962</v>
+        <v>-2.017735784464752</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2348899723219808</v>
+        <v>-0.2367709251719351</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3444621654130856</v>
+        <v>-0.3499838244906083</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.02607580731362973</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.950566092482366</v>
+        <v>-1.955148062144473</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1902759743478341</v>
+        <v>-0.1902271797550737</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3583859385601114</v>
+        <v>-0.3636211261575575</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.05338781945901078</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.704979759081427</v>
+        <v>-1.709092671045386</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1628864676180808</v>
+        <v>-0.164547057791053</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.37433390029713</v>
+        <v>-0.3810282036200218</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08586188542779642</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.476768235750965</v>
+        <v>-1.485235671614002</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04520492801403488</v>
+        <v>-0.04633822178137137</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3578303098102923</v>
+        <v>-0.364257029882563</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1135828946506996</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.190587162202119</v>
+        <v>-1.201303871389495</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004847306024205694</v>
+        <v>0.003038758053831203</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3116721990781496</v>
+        <v>-0.3167090602663118</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1205106402069091</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.002139296923516</v>
+        <v>-1.017631580124918</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1451537964778277</v>
+        <v>0.1475714898481456</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3040445024163265</v>
+        <v>-0.3100729956509081</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.09096680214790109</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7662520693480308</v>
+        <v>-0.7861539671177568</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1683658564596489</v>
+        <v>0.1723481248365397</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2899428651085936</v>
+        <v>-0.2959540441328409</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.01483674810859645</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5342085964667621</v>
+        <v>-0.5588010712179641</v>
       </c>
       <c r="F12" t="n">
-        <v>0.158446387957212</v>
+        <v>0.1652193922361689</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2426357204179014</v>
+        <v>-0.2491584556565715</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1097470563960777</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3162431506064068</v>
+        <v>-0.3496768907619547</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0187204822790295</v>
+        <v>-0.01177118785848697</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1920184135151139</v>
+        <v>-0.1983900429181391</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2722315898951759</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.005497147640982427</v>
+        <v>-0.04110775624128919</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1379162282777667</v>
+        <v>-0.1301185375508431</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0832332299846595</v>
+        <v>-0.08898154781564961</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4533540954703699</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3948010992117233</v>
+        <v>0.35506813453273</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4111895580223856</v>
+        <v>-0.4060834399928862</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04297791923771486</v>
+        <v>0.0400974642457346</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6339499664191958</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7571403009351416</v>
+        <v>0.7135604335236895</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6169988542089357</v>
+        <v>-0.6104178802627775</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08579123933709357</v>
+        <v>0.08109594029825361</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.815044365941919</v>
       </c>
       <c r="E17" t="n">
-        <v>1.251665628465392</v>
+        <v>1.206656551691799</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7380912932488403</v>
+        <v>-0.7248034238268198</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1470316012895394</v>
+        <v>0.1428777648284269</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.007258546953127</v>
       </c>
       <c r="E18" t="n">
-        <v>1.605635770520854</v>
+        <v>1.560083657150412</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9331295765883297</v>
+        <v>-0.9182676880450087</v>
       </c>
       <c r="G18" t="n">
-        <v>0.203287044684826</v>
+        <v>0.1962842336141593</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.209817495200921</v>
       </c>
       <c r="E19" t="n">
-        <v>1.970273040161372</v>
+        <v>1.925835332328811</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.045791569214548</v>
+        <v>-1.026052582423876</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2690322493624344</v>
+        <v>0.2611511356220819</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.412100834968576</v>
       </c>
       <c r="E20" t="n">
-        <v>2.28679569330197</v>
+        <v>2.239631784351316</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.264258340165037</v>
+        <v>-1.242597476027258</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3398615358018441</v>
+        <v>0.3314562736940984</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.600061675175</v>
       </c>
       <c r="E21" t="n">
-        <v>2.547341504431751</v>
+        <v>2.500881182028319</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.304018850178653</v>
+        <v>-1.276295651395184</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4637226744761165</v>
+        <v>0.4568914314896715</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.769953883877603</v>
       </c>
       <c r="E22" t="n">
-        <v>2.767776586293427</v>
+        <v>2.722868246743597</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.418818360771598</v>
+        <v>-1.387677966475785</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4681551123216993</v>
+        <v>0.4579727826260051</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.920844034145847</v>
       </c>
       <c r="E23" t="n">
-        <v>2.848580431904519</v>
+        <v>2.8001998061731</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.530053505064357</v>
+        <v>-1.497171458610825</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5685743842224406</v>
+        <v>0.5562608326365053</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.052554526509432</v>
       </c>
       <c r="E24" t="n">
-        <v>2.970677095143814</v>
+        <v>2.925051002874671</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.670323006068628</v>
+        <v>-1.640130958293399</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6094437907070129</v>
+        <v>0.5968122872585748</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.162880072094062</v>
       </c>
       <c r="E25" t="n">
-        <v>2.97999056628455</v>
+        <v>2.93442900879938</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.624923572552952</v>
+        <v>-1.589981922079198</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6643471516771021</v>
+        <v>0.6509947474711084</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.248940780481775</v>
       </c>
       <c r="E26" t="n">
-        <v>2.965611901611468</v>
+        <v>2.920639027277665</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.546483903662054</v>
+        <v>-1.50661714735775</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6072905325490735</v>
+        <v>0.5920681936269746</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.311017598304053</v>
       </c>
       <c r="E27" t="n">
-        <v>3.032273185417674</v>
+        <v>2.991973573855012</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.588413412024822</v>
+        <v>-1.550023872665859</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6355111213748735</v>
+        <v>0.6217384540634926</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.349424181916642</v>
       </c>
       <c r="E28" t="n">
-        <v>2.971281518486393</v>
+        <v>2.932083720308642</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.541993227108983</v>
+        <v>-1.503646973275856</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6524821955407376</v>
+        <v>0.6396570877403795</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.368374887029557</v>
       </c>
       <c r="E29" t="n">
-        <v>2.841402904711388</v>
+        <v>2.798817817384598</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.689164014950598</v>
+        <v>-1.658023620654785</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6229126723279829</v>
+        <v>0.6092895368331254</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.371232461373248</v>
       </c>
       <c r="E30" t="n">
-        <v>2.793291436249711</v>
+        <v>2.75486805547964</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.672184283679566</v>
+        <v>-1.642947665510967</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5755960835225629</v>
+        <v>0.5609876120577713</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.361650437395379</v>
       </c>
       <c r="E31" t="n">
-        <v>2.677194933900815</v>
+        <v>2.640547046699572</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.706338137583109</v>
+        <v>-1.681404887692146</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5654027356930197</v>
+        <v>0.5538683235721282</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.339459495784373</v>
       </c>
       <c r="E32" t="n">
-        <v>2.635182789534178</v>
+        <v>2.600659828146691</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.748373892236565</v>
+        <v>-1.726748443529015</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5564922134473365</v>
+        <v>0.5451246473533029</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.303918605338696</v>
       </c>
       <c r="E33" t="n">
-        <v>2.458771448476162</v>
+        <v>2.424742729092762</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.738152999072399</v>
+        <v>-1.718982233184518</v>
       </c>
       <c r="G33" t="n">
-        <v>0.55291446798462</v>
+        <v>0.5412320980663263</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.254667493840228</v>
       </c>
       <c r="E34" t="n">
-        <v>2.286984575596525</v>
+        <v>2.251899689382733</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.728905636734758</v>
+        <v>-1.709625476517946</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4913530061314288</v>
+        <v>0.4818553747535004</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.192464191046244</v>
       </c>
       <c r="E35" t="n">
-        <v>2.133451602466614</v>
+        <v>2.098958547442431</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.764902667029344</v>
+        <v>-1.749285249307799</v>
       </c>
       <c r="G35" t="n">
-        <v>0.42893527787625</v>
+        <v>0.4191275647314254</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.119754958209935</v>
       </c>
       <c r="E36" t="n">
-        <v>1.980781191815175</v>
+        <v>1.948521669924117</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.636865655626261</v>
+        <v>-1.616883482881349</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4297852482017524</v>
+        <v>0.4216381252299</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.037237556688384</v>
       </c>
       <c r="E37" t="n">
-        <v>1.782139978707028</v>
+        <v>1.748773921373696</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.622880495733504</v>
+        <v>-1.602409590051428</v>
       </c>
       <c r="G37" t="n">
-        <v>0.352173513368658</v>
+        <v>0.3403888322074798</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.946265633950613</v>
       </c>
       <c r="E38" t="n">
-        <v>1.663945308869438</v>
+        <v>1.630434441776947</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.521338948199275</v>
+        <v>-1.499871688413416</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3036291896486236</v>
+        <v>0.2932674217731011</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.845542323168889</v>
       </c>
       <c r="E39" t="n">
-        <v>1.491494199920614</v>
+        <v>1.457846393164569</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.483884376198365</v>
+        <v>-1.461570294125246</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2875915088216908</v>
+        <v>0.2786243218876408</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.736195877205563</v>
       </c>
       <c r="E40" t="n">
-        <v>1.262801813748594</v>
+        <v>1.228123024468097</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.549938875633309</v>
+        <v>-1.533339269980072</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3064435358375092</v>
+        <v>0.2999428368665373</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.618370262162706</v>
       </c>
       <c r="E41" t="n">
-        <v>1.176734448195872</v>
+        <v>1.144967594289782</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.490393732274504</v>
+        <v>-1.473153500838898</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2075085639681545</v>
+        <v>0.2006112121786148</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.494308204686676</v>
       </c>
       <c r="E42" t="n">
-        <v>1.037389683425365</v>
+        <v>1.008097187577959</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.376851862959479</v>
+        <v>-1.356384105315645</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1666029550437922</v>
+        <v>0.1609427822835949</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.3671609320932</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9475871704977971</v>
+        <v>0.92085875179899</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.312191944466007</v>
+        <v>-1.292734707098049</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1252282884212823</v>
+        <v>0.1201693909654219</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.239918313486483</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7766439718671785</v>
+        <v>0.7497235228355728</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.239849238641467</v>
+        <v>-1.219556984129659</v>
       </c>
       <c r="G44" t="n">
-        <v>0.110087798493491</v>
+        <v>0.104764465825252</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.116984695428887</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6178522008530012</v>
+        <v>0.5911788728234397</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.203334356055973</v>
+        <v>-1.187101496857999</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09392734417509682</v>
+        <v>0.08985535670829194</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.00039096206074</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4468318752854388</v>
+        <v>0.4199240184068035</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.068263840209358</v>
+        <v>-1.048080193016919</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01957382892309493</v>
+        <v>0.01551758164750306</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8937196350069103</v>
       </c>
       <c r="E47" t="n">
-        <v>0.36535434949043</v>
+        <v>0.3422335826176442</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.083178458393242</v>
+        <v>-1.067655481818975</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01950119576319465</v>
+        <v>-0.02348346414008539</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7974021273505656</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2296455688901273</v>
+        <v>0.2070646905759476</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9608952738880739</v>
+        <v>-0.9414293794149483</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01031049811391993</v>
+        <v>-0.01229218818763749</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7123503299699028</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2218541742396889</v>
+        <v>0.2029927031091428</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9320222541364948</v>
+        <v>-0.9128310260000361</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.08674329262516003</v>
+        <v>-0.09231374629544316</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6375606624341131</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04678389747301992</v>
+        <v>0.02517891101404668</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8735804981817215</v>
+        <v>-0.8535699930926258</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.09662655868780705</v>
+        <v>-0.100358558024411</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5699595747908891</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03481190803640689</v>
+        <v>0.01735288794293966</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9598619303349401</v>
+        <v>-0.9455769197995756</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1386339809970798</v>
+        <v>-0.1433654824757097</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5069179210367328</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.01863076318911536</v>
+        <v>-0.03398846775564618</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9227599386172008</v>
+        <v>-0.9076438459857897</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1486447426085522</v>
+        <v>-0.1522492463963308</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4435051390283867</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.08543685675448046</v>
+        <v>-0.09993042482341719</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8782608440389091</v>
+        <v>-0.8629188796635913</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1855507689456894</v>
+        <v>-0.1887381576663233</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3785815621949147</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1875450511723774</v>
+        <v>-0.2030507135363105</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8831127579803185</v>
+        <v>-0.8685640992421362</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2356297613089921</v>
+        <v>-0.2394656459076019</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3108925443517105</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2692586798355813</v>
+        <v>-0.2851909013813869</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8651783841122185</v>
+        <v>-0.8503448279130807</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2309911269585189</v>
+        <v>-0.2310115892070959</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2414679572151417</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3055350985241982</v>
+        <v>-0.3186451037855116</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8513876155809424</v>
+        <v>-0.8358780181692061</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2341171289334221</v>
+        <v>-0.2345373920388094</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1723724318674963</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3599835679682316</v>
+        <v>-0.3739388214976835</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8530411226678688</v>
+        <v>-0.8368318737567143</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3436861739862843</v>
+        <v>-0.3474228953802521</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1053818724849016</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3821898297315418</v>
+        <v>-0.3945317136616604</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7606532833335643</v>
+        <v>-0.7420609694727606</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3535914763166295</v>
+        <v>-0.3568056233623255</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.04268059678019599</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4940915711221715</v>
+        <v>-0.5077367428847271</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.758740850101184</v>
+        <v>-0.7395803153375907</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4060063130559424</v>
+        <v>-0.4097304422969399</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.01546971903822529</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5123297306806825</v>
+        <v>-0.5252398355135909</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7486120370556141</v>
+        <v>-0.7291319764103967</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4104513430544956</v>
+        <v>-0.4125007159504291</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.06858436401274233</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5310212077461283</v>
+        <v>-0.5401158902290036</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7615189938502797</v>
+        <v>-0.7412582197208972</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4505431840931454</v>
+        <v>-0.4533008655936642</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1173683731204861</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6360775399782214</v>
+        <v>-0.6476198221947194</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8020798925870771</v>
+        <v>-0.7815767195130143</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4833646308105073</v>
+        <v>-0.4867377537874547</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1614643151146269</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7166106543004498</v>
+        <v>-0.7276508244172528</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8166490135738362</v>
+        <v>-0.7961001939452558</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5417953686314315</v>
+        <v>-0.5461632716930409</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2008979490936575</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.746172307417598</v>
+        <v>-0.7562790841954697</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8626237510783474</v>
+        <v>-0.8432554457907424</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5358030778366397</v>
+        <v>-0.5394910046378473</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2355839610170656</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8018847142160358</v>
+        <v>-0.8132632984439185</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8756723695939301</v>
+        <v>-0.8564048015300884</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5728759502006349</v>
+        <v>-0.5770140464705343</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2653875532439636</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8291719097029046</v>
+        <v>-0.8410541800496034</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9778450987958004</v>
+        <v>-0.9602987206411009</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6524630790309616</v>
+        <v>-0.6597287512948855</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2911794615612809</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9541356487716481</v>
+        <v>-0.9681963615822271</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9433268594656763</v>
+        <v>-0.9246826029738696</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6529935234748399</v>
+        <v>-0.6593100622086195</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3129173316688894</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.004451531012706</v>
+        <v>-1.017511954671699</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.025322237551593</v>
+        <v>-1.007996222073876</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.710728544844149</v>
+        <v>-0.7193935201069094</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3315324231033598</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.032768135004906</v>
+        <v>-1.048003066079975</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9919530321800184</v>
+        <v>-0.9740682399142394</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7400399289210104</v>
+        <v>-0.748774161025108</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3475190194960874</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.1759212390394</v>
+        <v>-1.196591258140321</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9891064185991462</v>
+        <v>-0.9707612257403866</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7611223410317119</v>
+        <v>-0.7704861807843297</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3607945180186722</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.179083443454093</v>
+        <v>-1.200389366280019</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.030762834644369</v>
+        <v>-1.012687586064912</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7901661418579522</v>
+        <v>-0.7995677580694812</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3703706162795647</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.154408332699023</v>
+        <v>-1.177154483020939</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.117454298778686</v>
+        <v>-1.101072694773749</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7536693604923531</v>
+        <v>-0.7630442183788201</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3751148537491077</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.110437321535928</v>
+        <v>-1.133775303047453</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.181031292116703</v>
+        <v>-1.167551392361884</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7443794996384365</v>
+        <v>-0.7527060607901171</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3747596904829426</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.110067427042422</v>
+        <v>-1.135552370635401</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.175272743161424</v>
+        <v>-1.161195503150072</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7476109608944668</v>
+        <v>-0.7584402124490155</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3687050138929838</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.032207784197723</v>
+        <v>-1.058146045297637</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.207754201748585</v>
+        <v>-1.192381544000402</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7608862381635169</v>
+        <v>-0.772430094399136</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3563415228412536</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.940799771766428</v>
+        <v>-0.9677965607254168</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.286583440372006</v>
+        <v>-1.27353167381818</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7065904485742496</v>
+        <v>-0.7161573367935151</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3375735167010142</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8313503521667847</v>
+        <v>-0.8572823171902135</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.236649257767863</v>
+        <v>-1.22237841340459</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7139269516986321</v>
+        <v>-0.7260311587414344</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.312371432944561</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7391820884999016</v>
+        <v>-0.7658459724147353</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.238327162151169</v>
+        <v>-1.224300290751698</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6741231561591803</v>
+        <v>-0.6861281999973406</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2806296292710876</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6171405159298528</v>
+        <v>-0.6443568805562629</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.301399682360809</v>
+        <v>-1.288144080330775</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6502846365670814</v>
+        <v>-0.6627445719312977</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2424474263528735</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4395234762249193</v>
+        <v>-0.4689355975255439</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.219291761907719</v>
+        <v>-1.204596719391256</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6647420021962281</v>
+        <v>-0.6791537212708573</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.198088097012603</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2217862631371526</v>
+        <v>-0.2471027866841528</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.231582490216396</v>
+        <v>-1.218301703880421</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6001930520508083</v>
+        <v>-0.6114913613035047</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1485618366173547</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.05488042355267021</v>
+        <v>-0.07923522141655574</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.241682970917782</v>
+        <v>-1.227202782011377</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4715657834772374</v>
+        <v>-0.4800403024263203</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09533761369549941</v>
       </c>
       <c r="E83" t="n">
-        <v>0.135224883860663</v>
+        <v>0.1109960075264815</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.158614898800699</v>
+        <v>-1.143272147415821</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4312598758380907</v>
+        <v>-0.4382548168131509</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.04122122729939564</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2851706674131304</v>
+        <v>0.2599359928604378</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.133122872121674</v>
+        <v>-1.116991537157024</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3384997809815986</v>
+        <v>-0.347029390599927</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.01053764367282145</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4883592217627148</v>
+        <v>0.4676293899351848</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.109695171520234</v>
+        <v>-1.094767961183379</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2681757546801264</v>
+        <v>-0.273146507065194</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.05777565082969127</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6466284184286203</v>
+        <v>0.6257805351669927</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.00300343342111</v>
+        <v>-0.9876441548354578</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2075162057834405</v>
+        <v>-0.2143505968081281</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.09805836345299788</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8681495734839939</v>
+        <v>0.8500719638758555</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9523097865909393</v>
+        <v>-0.9396090263011641</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1502439460357937</v>
+        <v>-0.1566313156300319</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1294831599180299</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9742274441258112</v>
+        <v>0.958066989807417</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7796139176687524</v>
+        <v>-0.7657719935160341</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.08896895566267921</v>
+        <v>-0.09367212479712565</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1501802195549295</v>
       </c>
       <c r="E89" t="n">
-        <v>1.216108536515209</v>
+        <v>1.20190301394547</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6242944328361644</v>
+        <v>-0.6084692445906072</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02905099805244637</v>
+        <v>0.02793029643808028</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1583781860265149</v>
       </c>
       <c r="E90" t="n">
-        <v>1.382380046393807</v>
+        <v>1.370356114326191</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.549419917255012</v>
+        <v>-0.5345139561762945</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04909613156221063</v>
+        <v>0.04941408342471337</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1524107921162416</v>
       </c>
       <c r="E91" t="n">
-        <v>1.461482377334773</v>
+        <v>1.450388690567846</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3345316787767995</v>
+        <v>-0.3176078251845745</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07751662081641585</v>
+        <v>0.0781100260251462</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1324646008521463</v>
       </c>
       <c r="E92" t="n">
-        <v>1.59529603891303</v>
+        <v>1.588009904400529</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2406902327839738</v>
+        <v>-0.2266688704514273</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09073208535885642</v>
+        <v>0.09147344836498905</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1003885179746596</v>
       </c>
       <c r="E93" t="n">
-        <v>1.60379102011069</v>
+        <v>1.59851490801609</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.03529175558808315</v>
+        <v>-0.02207786506476387</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1150144783431621</v>
+        <v>0.1172684737248647</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.05910513442051583</v>
       </c>
       <c r="E94" t="n">
-        <v>1.553811190952029</v>
+        <v>1.548695628807802</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1228247612230561</v>
+        <v>0.1359048601210649</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1275216342810174</v>
+        <v>0.1303485726228734</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01291672360601466</v>
       </c>
       <c r="E95" t="n">
-        <v>1.545119457364207</v>
+        <v>1.541961975006878</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1824186991746215</v>
+        <v>0.191299315057</v>
       </c>
       <c r="G95" t="n">
-        <v>0.138067562393732</v>
+        <v>0.1416201235505077</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03278996406078165</v>
       </c>
       <c r="E96" t="n">
-        <v>1.508602213750031</v>
+        <v>1.509058679295208</v>
       </c>
       <c r="F96" t="n">
-        <v>0.273489871513958</v>
+        <v>0.2819502242909492</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0517814081831496</v>
+        <v>0.05239527564045687</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.0735854801307408</v>
       </c>
       <c r="E97" t="n">
-        <v>1.351958978836429</v>
+        <v>1.352015643524796</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2922175510191936</v>
+        <v>0.2986379750149791</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03110981506310767</v>
+        <v>0.03144350711682341</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1084175662724883</v>
       </c>
       <c r="E98" t="n">
-        <v>1.285924154640501</v>
+        <v>1.2887542410206</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2457729688069742</v>
+        <v>0.2515212866379643</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02601943722482124</v>
+        <v>0.02754466175336161</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.13652542570348</v>
       </c>
       <c r="E99" t="n">
-        <v>1.181300677666766</v>
+        <v>1.184255111557447</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2226490538959458</v>
+        <v>0.2255405270217751</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05653966798684158</v>
+        <v>0.06031573985884193</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1598764898368982</v>
       </c>
       <c r="E100" t="n">
-        <v>1.064651694606293</v>
+        <v>1.067590388305762</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2169778630018994</v>
+        <v>0.2215283522815797</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02173967923400467</v>
+        <v>0.02452097102134299</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1792724203295469</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9028220666880055</v>
+        <v>0.9067917429119258</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1856910849278056</v>
+        <v>0.1886250565699101</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01660342656088008</v>
+        <v>-0.01445174242206204</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.200612337545825</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7345169241046868</v>
+        <v>0.7375264486646137</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1526335353422486</v>
+        <v>0.1532820312202245</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.04062453237104988</v>
+        <v>-0.03778027981885954</v>
       </c>
     </row>
   </sheetData>
